--- a/news_data/2018_09.xlsx
+++ b/news_data/2018_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,57 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>김영진 제주도관광협회장, 문화체육관광부 산업포장 수상</t>
+  </si>
+  <si>
+    <t>제주도 기관경영평가서 관광공사·에너지공사 '나' 등급</t>
+  </si>
+  <si>
+    <t>제주도, 추석연휴 관광대책 종합상황실 운영</t>
+  </si>
+  <si>
+    <t>생태관광 발전방안 논의…제주도, 사이버환경포럼 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 부산국제관광전 최우수 홍보상 수상</t>
+  </si>
+  <si>
+    <t>제주도관광협회 추석맞이 공항만 환영행사</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 개별관광객 유치 마케팅 본격 추진</t>
+  </si>
+  <si>
+    <t>제21회 제주도 관광기념품 공모전 시상</t>
+  </si>
+  <si>
+    <t>제주도-도관광협회, 가을 관광철 맞아 관광객 할인·경품 이벤트</t>
+  </si>
+  <si>
+    <t>제주도 마라도서 관광객 2명 바다에 빠져 숨져 ... 마라도 너울성 파도에 휩쓸...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 환경정화 활동</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 한라산둘레길 탐방</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남권 대표 지역축제 '2018 명량대첩축제' 참가</t>
+  </si>
+  <si>
+    <t>제주도관광협회 6일 제16차 제주관광포럼 개최</t>
+  </si>
+  <si>
+    <t>제주도, 도 관광협회 “9월 한달 간 관광객 대상 가을 이벤트 실시”</t>
+  </si>
+  <si>
+    <t>제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시</t>
+  </si>
+  <si>
     <t>제주도관광협회, 농어촌마을 체험 '팜팜버스' 진행</t>
   </si>
   <si>
-    <t>제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시</t>
-  </si>
-  <si>
     <t>세종대 관광산업연구소 "내국인 '제주도 여행' 관심도 급락"</t>
   </si>
   <si>
@@ -40,31 +85,79 @@
     <t>"제주도 여행, 국내 여행객 관심도 급격 하락"… 세종대 관광산업연구소 등 조...</t>
   </si>
   <si>
+    <t>세종대 관광산업연구소 "제주도에 대한 내국인 관심도 급락"</t>
+  </si>
+  <si>
     <t>제주도 마라도서 관광객 2명 사망…'너울성 파도' 얼마나 세길래</t>
   </si>
   <si>
-    <t>세종대 관광산업연구소 "제주도에 대한 내국인 관심도 급락"</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:25 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 문유미 기자 승인 2018.09.16 16:02 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 15일 낙천 아홉굿 의자마을과 신흥2리 동백마을에서 관광객 및 도민 80여 명이 참가한 가운데 농·어촌마을을 체험하는 ‘팜팜버스’ 프로그램을 진행했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 본문 바로가기 제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 부동산 제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 기사입력 2018-09-05 16:42 제주특별자치도와 도 관광협회는 다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위한 다양한 이벤트를 추진한다고 밝혔다. 이번 행사에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 참여한다. 해당 업체 들은 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 이에 행사기간 중 제주도를 방문하는 관광객이 숙박업, 렌터카, 관광지, 음식점, 기념품 등을 이용할 경우 업종별로 대규모 할인 혜택과 추가 기념품 등의 혜택을 다양하게 받을 수 있다. 또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 9월 중 개최 예정으로, 이번 이벤트가 축제의 즐거움을 더해줄 것으로 기대된다. 할인 업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다. 한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으 로써 온라인 참여를 유도할 예정이다. 제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. 자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트 및 어플에서 확인할 수 있다. Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 권성동 "다친 군인에게 '짜장면 먹고 싶냐'고 한 것이 무례" 이재명 "윤석열 정부, 헛발질로 판명난 '북풍몰이' 빌미로 보복감사" 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
-  </si>
-  <si>
-    <t>세종대 관광산업연구소 내국인 '제주도 여행' 관심도 급락 | 아주경제 2022.10.04 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 세종대 관광산업연구소 "내국인 '제주도 여행' 관심도 급락" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 세종대 관광산업연구소 "내국인 '제주도 여행' 관심도 급락" 기자정보, 기사등록일 조득균 기자 입력 2018-09-04 00:00 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 컨슈머인사이트와 '주례 여행 형태 및 계획조사' 공동 수행 2018년 국내 여행지 관심도 추이 [그래픽=세종대 제공] 내국인을 중심으로 '제주도 여행'에 대한 관심이 점차 줄어드는 것으로 나타났다. 세종대학교 관광산업연구소는 컨슈머인사이트와 공동으로 수행한 '주례 여행 행태 및 계획조사'에서 제주도에 대한 내국인의 관심도가 급속히 식어가고 있다고 밝혔다. 줄곧 큰 차이로 앞서던 강원도에게 올해 8월 처음으로 뒤지는 것이 확실시 되고 있다. 제주도는 비싸다는 인식에 더해 불법체류자간의 살인사건, 난민 유입, 여성 사망사건 등이 영향을 준 것으로 보인다. 세종대 관광산업연구소와 여행전문 리서치 기관 컨슈머인사이트가 공동 수행하는 '주례 여행 행태 및 계획 조사'에서 특정 시도를 '가보고 싶다는 생각이 예전보다 더 커졌다'는 반응을 관심도로 판단, 2016년 2월부터 매주 500명을 대상으로 측정해 왔다.관련기사위메프, ‘제주 스냅촬영 온라인 박람회’ 개최 지난 30여 개월 동안 제주도는 2위 강원도를 줄곧 10%포인트 이상의 차이로 앞서며, 국내 여행지 관심도에서 부동의 1위 자리를 지켜왔다. 그러나 지난 7월 처음으로 그 차이가 3%포인트로 좁혀졌으며, 8월에 실시된 2주간의 조사(8월 6일~16일)에서는 강원도 50%, 제주도 48%로 역전 당한 상태다. 제주도 관심도의 변화 추이를 보다 구체적으로 파악하기 위해 지난 5월부터의 주단위 결과를 보면, 6월에 들어서부터 11주 연속 하락세를 이어가고 있다. 5월말 63%로 시작한 관심도는 매주 1~2%포인트씩 하락하여 7월 5째 주에는 처음으로 40%대로 진입하며 8월 2째 주에는 48%로 최저점을 기록했다. 제주도의 하락은 5월말 이후에 전개된 일련의 사건과 관련이 있다. 중국인 불법체류자간에 발생한 살인사건(5월31일), 예멘 이슬람 난민 관련 청원과 루머(6월13일), 30대 여성 실종(7월 25일) 및 시신 발견(8월1일)등의 영향이 큰 것으로 보인다. 관심도는 편의상 '관심이 커졌다'의 비율로 설명하나 '비슷하다'와 '적어졌다'는 답도 있다. 6월에 '커졌다'는 감소하고 '비슷하다'는 증가했으며 '적어졌다'는 변함이 없다. 그러나 7월의 변화는 극적이다. 5주간 관심이 '커졌다'는 전월 말에 비해 9%포인트(58%→49%) 줄어든 반면 '적어졌다'는 2배 이상(10%→24%로) 커져 제주도에 대한 부정적 인식이 급속히 늘었음을 보여준다. 8월에 들어서 '비슷하다'는 커지고 '적어졌다'는 감소세를 보이고 있으나 지켜 볼 필요가 있다. 올해 상반기 제주도관광협회의 입도통계에 따르면 외국인은 크게 줄고, 내국인은 정체 상태에 머물고 있다. 외국인 감소로 인해 작년 상반기에는 전체의 89%를 차지했던 내국인이 금년 상반기에는 93%로 커졌다. 이제 제주도 관광은 거의 전적으로 내국인에 의존하고 있음을 알 수 있다. 제주도관광협회는 지역관광 활성화를 위해 9월 한 달 동안 '제주관광 그랜드 세일'을 전개한다. 금전적 보상을 통해 관광객을 유치하려는 시도이나, 낮아지고 있는 제주도에 대한 관심도를 되살릴 수 있을지는 미지수다. 문제를 해결하려면 그 원인이 무엇인지에 대한 정확한 이해가 선행돼야 할 것으로 보인다. #세종대 #제주도 여행 #컨슈머인사이트 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2제로코로나에 발 묶인 중국인…국경절 '즉흥바캉스' 대세로 3빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 4투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 5복지위 국감 화두는 '코로나·비대면·리베이트'... 경보제약 대표 등 증인출석 6내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 7환율 오르는데, 비자 카드 계속 사용해도 될까? 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 3내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 4환율 오르는데, 비자 카드 계속 사용해도 될까? 5​3년 연속 국감 불려가는 송호섭 스타벅스 대표... '서머 캐리백' 논란에 거취도 주목 6尹 정부 첫 국정감사 시작…소비자물가 동향 발표 7​8월 경기도 아파트 매매량 '역대 최저'…과천시 4건 1尹 대통령 지지도 31.2%...'비속어 논란'에 4주 만에 하락세 2김민석 "10~30대 사망원인 1순위 자살...코로나 이후 증가 현상 우려" 3삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 4감사원, '文 서면조사' 논란에 "노태우·김영삼‧이명박‧박근혜도 조사" 5이재명, 감사원 '文 서면조사' 통보에..."유신 공포정치 연상" 6합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 7서울시, 평양과 올림픽 공동유치에 28조원 추산… "꼼수 대북지원 여부 조사 필요" 1무비자입국 허용에 방한일본인 1000% '껑충'…관광시장 회복 '가속화' 2'임실엔가을'…치즈축제 열기 속 가을꽃 향연 3방한 일본인 200여명, 제주 드림타워 찾았다 4안성시, 남사당 바우덕이 축제 폐막‥.잊지 못할 추억 전해 5볼거리 먹거리 찍을거리 많은 전남 "사나흘 머물면서 즐기세요" 6대구 동구청, 동대구역 동고가교 방면 1차로 주행 가능 7가족·친구·외국인 3000명 함께…"걸으며 역사 배우는 시간" 1투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 2과방위, 진통 끝 일반증인 명단 합의…이통3사 수장은 제외 3대기업까지 옥죄는 高금리...영업이익으로 이자도 못 낸다 4"화면 벗어나 몸으로 느낀다" 네이버웹툰 '문유', CGV 4DX로 개봉 56G 필수인 저궤도 위성통신 속도 내는 韓 정부·기업...원웹 "우리도 참가 희망" 6신차보다 비싼 중고 전기차···보조금보다 많은 웃돈 '돈벌이 악용' 7캐스퍼, ​출시 1년만에 누적 판매량 4만5000대···'경차 1위' 오늘의 1분 뉴스 신용 1억+전세대출 5억…月 이자 259만원 낸다 감사원 ‘文조사’ 통보 직후 당정은 정부조직개편 논의 3000명의 시민들 북적… “건강·추억 모두 챙겼죠” 10월 첫째 날 3대 지수 일제 상승 ​3년 연속 국감 불려가는 송호섭 스타벅스 대표 서학개미, 글로벌 증시 공포 속 '아찔한 베팅'…3Q 실적 발표 '변곡점' 보험대출 7%, 주담대 8%, 카드론 15% 금리 쇼크 머지 않았다 포토뉴스 마산해양신도시 인근 바다 물고기 떼죽음 제4354주년 개천절 경축식 김연아, '여신 등장' 3년 만에 열린 '뉴발란스 런온 서울' 아주 글로벌 中國語 English 日本語 Tiếng Việt 韩汽油价格每升下降约合人民币8.34元 No hurry in selling HMM to new company, not foreign company or private equity fund ムーディーズ、「韓国の輸出減少傾向、来年初めまで続く」と予想 Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 뛰는 금리에 2년새 월상환액 2배 껑충 내년부터 서울 택시 기본요금 4800원 합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
-  </si>
-  <si>
-    <t>제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 - CCTV뉴스 - 김진영 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 스토리지 금융보안 특집 안전산업특집 UPDATE : 2022-10-04 09:02 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 금융보안 특집 안전산업특집 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 생활·문화 제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 김진영 기자 승인 2018.09.01 11:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [CCTV뉴스=김진영 기자] 시대가 변하면서 대중들의 입맛도 계속해서 변화하고 있다. 거기에 맞춰서 많은 요식 업체가 퓨전적인 요소를 활용하거나 재철에 맞는 신선도 높은 재료들로 사람들의 이목을 집중시키고 있다.해외 못지않은 이국적인 면모를 보여주는 제주도에서는 유독 많은 먹거리들이 생겨나고 있는데, 많은 서귀포 맛집 중에서도 중문관광단지 쪽에 위치한 제주도 서귀포 통갈치조림 맛집 ‘삼원정‘이 차별화된 생갈치조림을 선보이며 주목받고 있다.이 집은 그날 바다에서 공수한 생물 갈치만을 고집하여 조리를 하는 곳으로, 도민들에겐 제주도 현지인 맛집으로 불리고 있으며, 인근에 유명한 호텔들도 위치해있어 제주 롯데호텔 맛집, 제주 히든클리프호텔 맛집 등으로 알려져 있다.통째로 들어가는 생 갈치에 통 문어, 활 전복, 딱 새우 등 갖가지 해산물이 들어가는 해물 통 갈치조림이 가장 대표적인 메뉴로 꼽히는데, 이는 주문과 동시에 갓 지여져 나오는 찰솥밥과 함께 즐길 수 있다.제주도 중문 관광단지 맛집 삼원정 관계자는 “아직 여름철 날씨가 이어지면서 건강식을 찾는 이들이 많은데, 제주 여행을 하는 동시에 건강한 생갈치조림을 즐기고 가기 바란다”고 전했다.한편 맛집은 맛, 메뉴, 재료의 원산지, 가격, 후기 등을 확인한 뒤 방문하는 것이 좋다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[기고] 디지털 주권과 클라우드 데이터의 상관 관계 2[포커스온] 첨단 미래차 시대, 보안은 필수다 3사이냅소프트, 하이브리드 워크플레이스 '웍스타운(WorksTown)' 메타버스 전시회 참가 4[IT트렌드] 안전 사고 예방에 ‘디지털 트윈’ 주목 5레노버, ‘씽크시스템 서버 혁신 30주년’ 기념 제품 업그레이드 발표 6파블로항공 "드론 원천 기술로 무인 모빌리티 시장 선도하겠다" 7시옷, 하드웨어 기반의 자동차 보안 솔루션으로 글로벌 시장 공략 8삼성전자, 패션 브랜드 준지 콜라보 에디션 출시 9글로벌 가상자산 플랫폼 윈터뮤트에서 약 2300억 원 해킹 10[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 이 시각 주요뉴스 스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 휴네시온, 한국거래소 주관 코스닥 라이징스타 선정 휴네시온, 한국거래소 주관 코스닥 라이징스타 선정 굿모닝아이텍-인포블록스, SaaS 및 클라우드 보안 향상 위한 파트너십 굿모닝아이텍-인포블록스, SaaS 및 클라우드 보안 향상 위한 파트너십 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+    <t>김영진 제주도관광협회장, 문화체육관광부 산업포장 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 김영진 제주도관광협회장, 문화체육관광부 산업포장 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제주도관광협회장, 문화체육관광부 산업포장 수상 문유미 기자 승인 2018.09.30 13:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 제주특별자치도관광협회 회장은 지난달 27일 ‘제45회 관광의 날’을 맞아 문화체육관광부로부터 산업포장을 수상했다. 김 회장은 해외 교류, 해외공동세일즈 등을 통해 관광업계 활성화에 기여한 공로를 인정받았다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 기관경영평가서 관광공사·에너지공사 '나' 등급 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 기관경영평가서 관광공사·에너지공사 '나' 등급 등록 2018.09.20 10:21:43 작게 크게 기관장 성과평가, 개발공사·관광공사 '가' 등급 제주도 열린혁신 BI.【제주=뉴시스】강정만 기자 = 제주특별자치도는 지난해 도내 공공기관 경영실적을 평가한 결과 기관경영평가에서 공기업은 제주관광공사와 제주에너지공사가 '나' 등급, 출자출연 기관은 제주경제통상진흥원 등 7개 기관이 '나' 등급을 받았다고 20일 밝혔다. 기관장 성과 평가에서는 공기업은 제주개발공사와 제주관광공사가 '가' 등급을, 출자출연기관은 제주경제통상진흥원이 '가' 등급을  받았다. 제주신용보증재단 등 7개 기관이 '나' 등급을 받았다. 도는 도내 공사와 출자출연기관을 대상으로 실적 평가와 기관장 성과계약 이행 실적평가를 해마다 하고 있다. 이번 평가는 기관경영평가는 3개 공기업, 출자출연기관은 11개 기관을 대상으로 각각 이뤄졌다. 기관장 성과 평가도 공기업은 3개 기관, 출자출연기관은 10개 기관을 대상으로 실시됐다. 기관 경영평가는 공기업은 행정안전부 지방공기업 평가원, 출자출연기관은 제주도에 있는 한국경제경영연구원이 평가했다. 기관장 성과평가는 제주도와 경영평가단이, 출자출연기관은 한국경제경영연구원이 맡았다. 이번 평가결과에 따라 공사와 출자출연기관장의 기본연봉이 ±10% 범위내에서 조정되고, 기관장과 임직원의 평가급은 400% 범위내에서 차등 지급된다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 추석연휴 관광대책 종합상황실 운영 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 추석연휴 관광대책 종합상황실 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주도, 추석연휴 관광대책 종합상황실 운영 기자명 황민호 기자 입력 2018.09.19 13:20 수정 2018.09.19 13:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 공항, 여객터미널 등 광광불편신고 접수․처리 제주도가 오늘(19일) 추석 연휴 관광객의 불편사항 해소를 위해 도와 행정시, 유관기관 등 5개 반으로 편성된 관광대책 종합상황실을 운영한다고 밝혔습니다.종합상황실은 22일부터 26일까지 도 관광정책과가 총괄하며 제주공항과 여객터미널, 제주관광정보센터 등에서 관광안내와 추석맞이 환영 분위기 조성, 관광불편신고 접수․처리 등을 추진합니다.연휴기간 동안 20만5천여 명의 관광객이 제주를 찾을 것으로 예측하고 있는 가운데 도 관광정책과는 관광객 내도현황 파악과 관광지 불편신고 사항 접수․처리, 기상이변 시 공항 체류객 종합관리 등을 추진해 나갑니다.제주관광공사는 관광정보센터 콜센터(740-6000)를 운영하여 관광객 교통편과 숙박, 관광지 안내와 관광불편사항 접수 처리 등을 추진합니다.제주도관광협회는 제주공항과 제주항 여객터미널에서 여행객에 대한 불편사항 해소 지원을 하며 연휴 첫 날인 22일에는 공항, 23일에는 여객터미널에서 환영 행사도 계획하고 있습니다. 황민호 기자 acemino@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>생태관광 발전방안 논의…제주도, 사이버환경포럼 개최 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 생태관광 발전방안 논의…제주도, 사이버환경포럼 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 생태관광 발전방안 논의…제주도, 사이버환경포럼 개최 기자명 양경익 기자 입력 2018.09.19 10:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 다음달 3일 제주국제컨벤션센터에서 '생태관광의 현재와 지속가능 발전방안'을 주제로 '제6회 세계지방자치단체 사이버환경 포럼'을 개최한다고 19일 밝혔다.세계지방자치단체 사이버환경네트워크는 전 지구적 환경이슈에 대해 지역중심의 해결방안을 모색하고자 '세계지방정부정상포럼'에서 제주도가 제안해 설립된 협의체로서 현재 7개국 10개 지역이 가입됐다.제2회 세계리더스보전포럼이 다음달 3일부터 5일까지 제주국제컨벤션센터에서 열리게 됨에 따라 부대행사로 개최되는 이번 포럼은 온·오프라인을 병행한 형태로 개최되며 5개국 6개 지역이 참가할 예정이다.이날 포럼에서는 김성일 서울대학교 교수의 '미래세대를 위한 지속가능한 관광'에 대한 특별강연을 시작으로 참가지역의 환경국장들이 '지역별 생태관광 사례'에 대해 발표하며 이후 생태관광 발전방안 및 추진전략에 대한 전문가 토론이 이어질 계획이다.특히 포럼은 사이버환경네트워크 홈페이지(www.encynet.org)와 연계된 웹 스트리밍서비스를 통해 실시간으로 중계돼 현장에 직접 참석하지 못한 공무원들도 사이버 상으로 참여해 의견을 개진할 수 있다.제주도 관계자는 "회원도시 간 발전방안에 대한 논의결과 생태관광 정책에 반영해 자연환경을 보전함은 물론 지역주민의 이익창출과 복지증진에도 기여할 수 있도록 할 계획"이라며 "포럼의 성공개최를 통해 세계의 지방정부와 IT를 기반으로 환경교류 협력을 강화해 나가겠다"고 밝혔다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 부산국제관광전 최우수 홍보상 수상 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 부산국제관광전 최우수 홍보상 수상 파이낸셜뉴스입력 2018.09.11 17:35수정 2018.09.11 17:35 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 잠재 관광객 대상 청정제주·힐링제주 홍보활동 큰 호응 [제주=좌승훈 기자] 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 7일부터 4일간 부산 벡스코(BEXCO, 부산전시컨벤션센터)에서 개최된 제21회 부산국제관광전(BITF 2018)에서 최우수 홍보상을 수상했다. 제주관광홍보관은 가을 정취를 느낄 수 있는 '제주 힐링 타임' 포토존 운영과 제주도내 관광사업체와 협업 홍보, 제21회 제주도 관광기념품 공모전 당선작 전시, '나만의 컵 만들기' 체험행사와 더불어 시식·시음행사를 열어 여행업계와 관람객들로부터 큰 호응을 얻었다. 도와 협회는 특히 제주지역 1300여 개 업체가 참여하는 '내 맘속에 저장 황금빛 가을 제주'를 테마로 하는 제주관광 핫 세일 이벤트를 집중 홍보했다. 협회는 앞으로도 영남권 지역에서 잠재 관광객을 대상으로 청정제주·힐링제주와 고품격 제주관광 이미지를 부각시킨 다각적인 홍보 활동을 통해 내국인 관광객 유치에 적극적으로 나설 계획이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 추석맞이 공항만 환영행사 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 추석맞이 공항만 환영행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회 추석맞이 공항만 환영행사 기자명 고영진 기자 입력 2018.09.20 15:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)는 오는 22일과 23일 추석연휴 기간 제주를 찾는 입도객들을 위한 환영행사를 진행한다고 20일 밝혔다.환영행사는 제주국제공항(22일)과 제주항여객터미널(23일)에서 실시될 예정이며 입도 귀성객 및 관광객들에게 환영 기념품을 제공하는 등 감사의 마음 전달하고 현수막과 멀티비전을 활용해 환영메시지를 전달할 계획이다. 또 내국인 관광객 활성화를 위해 오는 30일까지 진행되는 '내 맘속에 저장, 황금빛 가을 제주' 이벤트에 대해 관광객들이 더 많은 혜택을 받을 수 있도록 홍보할 예정이다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 개별관광객 유치 마케팅 본격 추진-국민일보 시사 시사 &gt; 전체기사 제주도, 동남아 개별관광객 유치 마케팅 본격 추진 코리아 팬클럽 제작진 제주로 초청, 팸투어 진행 입력 : 2018-09-07 13:06 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 동남아 개별관광객을 제주로 유치하기 위한 마케팅이 본격적으로 추진된다(제주관광공사 제공) 제주와 직항노선이 운항 중인 태국 개별관광객을 대상으로 맞춤형 정보를 제공하기 위한 마케팅이 본격적으로 추진된다.제주도와 제주관광공사는 태국 개별관광객 맞춤형 온라인 콘텐츠 제작을 위해 오는 9일까지 태국 한국 관광정보 사이트인 코리아 팬클럽(www.koreafanclub.com) 제작진을 제주로 초청, 팸투어를 진행한다고 7일 밝혔다.이들은 체류하는 동안 제주관광 신규 콘텐츠를 포함해 태국 개별관광객들이 선호하는 관광지·음식점·숙박시설 등 총 19곳을 방문, 체험하게 된다.제주관광공사는 다음달 6일부터 태국 방콕에서 개최되는 ‘2018 한국문화관광대전’에 이들을 초청, 제주여행에 관심 있는 잠재 관광객들을 대상으로 제주에서 체험했던 신규 콘텐츠를 직접 소개하게 할 계획이다.제주관광공사 관계자는 “현재 제주∼태국 간 직항노선은 패키지 상품을 중심으로 운영이 되고 있다”며 “노선 운항 안정화와 지속적인 시장다변화를 위해 개별관광객으로 마케팅 대상을 확대해 나갈 방침”이라고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>‘바람담은 도자기’‘오마이솔트’ 금상 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 ‘바람담은 도자기’‘오마이솔트’ 금상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 ‘바람담은 도자기’‘오마이솔트’ 금상 기자명 진기철 기자 입력 2018.09.11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제21회 제주도 관광기념품 공모전 ▲ 제21회 제주도 관광기념품 공모전 금상 수상작인 '바람담은 도자기'·'바른소금 오마이솔트' (사진 왼쪽부터)제21회 제주특별자치도 관광기념품 공모전에 오르골 무드등인 ‘바람담은 도자기’와 제주 특산물을 이용한 ‘오마이솔트’가 금상을 차지했다.제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 11일 제주종합비즈니스센터에서 ‘제21회 제주특별자치도 관광기념품 공모전’ 입상작에 대한 시상식을 개최했다.이번 공모전 전통기념품분야 금상 수상작인 강은정씨의 오르골 무드등 ‘바람담은 도자기’는 제주 현무암 몽돌 이미지를 제품화했으며, 현대기념품분야 금상 수상작인 서유영씨의 ‘바른소금-오마이솔트’는 제주의 특산물에 건강을 담아낸 작품이다.이 외에 전통기념품 및 현대기념품 분야별로 각각 은상 2작품, 동상 2작품, 장려상 4작품, 입선 8작품 등 모두 34개 작품이 수상의 영예를 안았다이번 공모전은 지난해에 이어 출품분야를 전통기념품과 현대기념품으로 출품대상의 기회를 확대했고, 모두 200여개의 작품이 출품됐다.제주도 등은 상품판매 지원을 위해 국내 주요 관광안내소와 제주공항 및 여객선터미널 등에 전시·홍보 공간을 마련한다. 또 이들 기념품이 실질적인 판매촉진으로 이어질 수 있도록 관광협회가 운영하는 여행온라인 마켓인 ‘탐나오’에 입점시키는 한편 제주여행정보포털인 ‘비짓제주’ 사이트를 통해서도 홍보할 계획이다. 진기철 기자 jjphoto@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-도관광협회, 가을 관광철 맞아 관광객 할인·경품 이벤트 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도-도관광협회, 가을 관광철 맞아 관광객 할인·경품 이벤트 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도-도관광협회, 가을 관광철 맞아 관광객 할인·경품 이벤트 송고시간2018-09-06 11:18 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 ▲ 제주특별자치도와 도관광협회는 오는 30일까지 가을 관광철을 맞아 내국인 관광객 활성화를 위한 다양한 이벤트를 진행한다고 6일 밝혔다. 이번 행사에서는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1천260곳이 참여해 행사 기간에 제주를 찾은 관광객들에게 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 이에 관광객들은 숙박업, 렌터카, 관광지, 음식점, 기념품 등 업종별로 대규모 할인 혜택과 추가 기념품 등의 혜택을 다양하게 받을 수 있다. 더불어 행사 동안 제주의 공항, 항만 및 가을 축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만 원에서 최고 100만 원권 상당의 관광상품권을 증정한다. 특히 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 이달 개최 예정으로, 이번 이벤트가 축제의 즐거움을 더해줄 것으로 기대된다고 제주도 측은 말했다. 광고 또한, 할인 업체를 3회 이상 방문하면 1만5천원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 "모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것"이라고 말했다. 이번 행사에 대한 상세한 정보는 인터넷(탐나오·tamnao)상에 행사전용 웹페이지에서 확인할 수 있다. 제주도관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결제를 가능하게 함으로써 온라인 참여를 유도할 예정이다. 제주도는 보다 많은 관광객이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요 도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. (연합뉴스) 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/09/06 11:18 송고 #제주도 #제주도관광협회 #이벤트 #제주도 축제 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 마라도서 관광객 2명 바다에 빠져 숨져 ... 마라도 너울성 파도에 휩쓸린 듯 &lt; 사건/사고 &lt; 사회 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 마라도서 관광객 2명 바다에 빠져 숨져 ... 마라도 너울성 파도에 휩쓸린 듯 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 사회 사건/사고 제주도 마라도서 관광객 2명 바다에 빠져 숨져 ... 마라도 너울성 파도에 휩쓸린 듯 기자명 노승환 입력 2018.09.05 17:51 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 5일 제주 서귀포시 마라도 바지선 선착장에서 2명이 바다에 빠지는 사고가 발생하자 해경이 수색하고 있다. 사진 = 연합뉴스 제주도 마라도서 관광객 2명 바다에 빠져 숨져 ... 마라도 너울성 파도에 휩쓸린 듯 제주도 서귀포시 마라도 해안에 있는 바지선 선착장에서 관광객 2명이 파도에 휩쓸린 뒤 바다에 빠져 숨지는 사고가 발생한 가운데 이날 낮까지 마라도에서는 너울성 파도가 높게 일었다. 5일 오후 1시 40분께 국토 최남단 섬 마라도 해안에 있는 바지선 선착장  부근 해상에서 이모(53·충남)씨와 김모(51·여·충남)씨 등 2명이 물에 빠졌다. 신고를 받은 서귀포해경은 500t급 단정을 보내 30분 만인 오후 2시 10분께 이들을 구조하고 병원으로 옮겼다. 그러나 이들은 구조 직후부터 의식이 없었으며 병원에 옮겨진 후 사망 판정이 내려졌다. 서귀포해경은 이들이 선착장에서 높은 파도에 휩쓸려 바다로 추락한 것으로 보고 사고 원인을 조사하고 있다. 이날 낮까지 마라도에서는 너울성 파도가 높게 일었고 사고가 발생한 이 선착장에서는 2012년 8월 6일에도 일가족 3명이 파도에 휩쓸려 숨지는 사고가 발생했다. 한 마라도 주민은 "이 선착장에서는 파도에 휩쓸리는 사고가 잦아 위험성을 경고하는 안내판 설치 등의 안전사고 예방 대책이 시급하다"고 말했다. 노승환 기자 저작권자 © 금강일보 무단전재 및 재배포 금지 노승환 admin@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 환경정화 활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 올레길 15코스 환경정화 활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 올레길 15코스 환경정화 활동 편집팀 iheadline@hanmail.net 승인 2018.09.16 11:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(김영진 회장)는 지난 15일 협회 임직원 20여명이 참가한 가운데 올레길 15코스 일대에서 잡목과 쓰레기를 처리하는 환경정화 활동을 전개했다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 한라산둘레길 탐방 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 한라산둘레길 탐방 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 등반동호회, 한라산둘레길 탐방 편집팀 iheadline@hanmail.net 승인 2018.09.15 15:59 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 박지혜, 이음새 대표)는 15일 관광사업체 대표, 임원 및 종사자 등 회원 40여명이 참여한 가운데 한라산둘레길 천아숲길 코스 탐방 및 중문 퍼시픽랜드 잠수제트보트를 체험 행사를 진행했다.등반동호회는 제주의 다양한 관광상품을 개발.촉진하기 위해 매달 셋째주 토요일에 현장체험 프로그램을 진행하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남권 대표 지역축제 '2018 명량대첩축제' 참가 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 호남권 대표 지역축제 '2018 명량대첩축제' 참가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 호남권 대표 지역축제 '2018 명량대첩축제' 참가 기자명 고병수 기자 입력 2018.09.09 17:08 수정 2018.09.09 17:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 호남권 제주뱃길 운항 선박사들과 함께 7일부터 9일까지 3일간 전라남도 울둘목 일원에서 열리는 전라남도 대표 축제인 “2018 명량대첩 축제”에 참가해 제주관광 현장 홍보를 진행했다.현장에서는 축제에 참가하는 관광객들을 대상으로 제주기점 뱃길을 이용해 제주의 가을을 테마로 9월 한 달간 진행되는 “내 맘속에 저장! 황금빛 가을제주” 빅 이벤트를 집중 홍보했다.또한 제주 뱃길과 연계한 제주관광 상품, 제주 4‧3 70주년 모바일 스탬프투어, 올해 첫 선을 보인 제주시티투어 2층 버스 소개와 제주관광 홍보물 등을 배부했다. 축제 참가자를 대상으로 제주관련 이미지를 활용한 체험프로그램, 참여 이벤트, 기념품 증정 등 다양한 프로그램을 진행했다.관계자는 “앞으로도 제주기점 뱃길 활성화와 관광객 유치 확대를 위한 현장홍보 등 다양한 홍보를 지속 최선을 다해 나갈 계획”이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 6일 제16차 제주관광포럼 개최 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 6일 제16차 제주관광포럼 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회 6일 제16차 제주관광포럼 개최 기자명 고영진 기자 입력 2018.09.04 15:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김영진 관광협회장.제주특별자치도관광협회(회장 김영진)는 오는 6일 오후 4시 제주시 칼호텔에서 '제16차 제주관광포럼'을 개최한다.이날 포럼에서는 장혜원 제주대학교 관광과경영경제연구소 연구교수가 '제주지역 융복합관광 활성화 방안'을 주제로 발표할 예정이다.또 오상훈 제주대학교 교수(제주관광포럼 공동대표)가 좌장을 맡아 전문가 토론도 진행한다.전문 토론 패널로는 류시영 강원도 한라대학교 교수와 양성수 제주대학교 교수, 이성철 아침미소목장 대표, 임안순 제주농어촌체험휴양마을협의회장, 안순화 제주연구원 제주농업농촌6차산업화지원센터 전문연구위원 등 도내·외 각 분야 전문가들이 참여한다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도, 도 관광협회 “9월 한달 간 관광객 대상 가을 이벤트 실시”"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 생활/문화 제주도, 도 관광협회 “9월 한달 간 관광객 대상 가을 이벤트 실시” 2018.09.03 10:41 제주특별자치도와 도 관광협회가 9월 가을 관광철을 맞아 내국인관광객 활성화를 위한 다양한 이벤트를 진행하고 있다.이번 행사에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 참여한다. 해당 업체 들은 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다.이에 행사기간 중 제주도를 방문하는 관광객이 숙박업, 렌터카, 관광지, 음식점, 기념품 등을 이용할 경우 업종별로 대규모 할인 혜택과 추가 기념품 등의 혜택을 다양하게 받을 수 있다.또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 9월 중 개최 예정으로, 이번 이벤트가 축제의 즐거움을 더해줄 것으로 기대된다.할인 업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다.한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으로써 온라인 참여를 유도할 예정이다.제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다.자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트 및 어플에서 확인 가능하다.윤병찬 yoon4698@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 본문 바로가기 제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 부동산 제주도, 도 관광협회 9월 한달 간 제주여행객 위한 그랜드 세일 실시 기사입력 2018-09-05 16:42 제주특별자치도와 도 관광협회는 다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위한 다양한 이벤트를 추진한다고 밝혔다. 이번 행사에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 참여한다. 해당 업체 들은 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 이에 행사기간 중 제주도를 방문하는 관광객이 숙박업, 렌터카, 관광지, 음식점, 기념품 등을 이용할 경우 업종별로 대규모 할인 혜택과 추가 기념품 등의 혜택을 다양하게 받을 수 있다. 또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 9월 중 개최 예정으로, 이번 이벤트가 축제의 즐거움을 더해줄 것으로 기대된다. 할인 업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다. 한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으 로써 온라인 참여를 유도할 예정이다. 제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. 자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트 및 어플에서 확인할 수 있다. Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 "경력 1년 통째로 날아가"…한전, 채용형 인턴 차별적 운용 "하룻밤에 13만 원" 데이트 비용에 빚지는 미국 MZ세대 한일 외교당국 국장급 협의…'강제 징용' 배상 논의 주목 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우유 없는 밀크티 부터 고기 없는 육포까지' 중국 제조법 폭로남 계정 삭제 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 농어촌마을 체험 ‘팜팜버스’ 진행 문유미 기자 승인 2018.09.16 16:02 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 15일 낙천 아홉굿 의자마을과 신흥2리 동백마을에서 관광객 및 도민 80여 명이 참가한 가운데 농·어촌마을을 체험하는 ‘팜팜버스’ 프로그램을 진행했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>세종대 관광산업연구소 내국인 '제주도 여행' 관심도 급락 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 세종대 관광산업연구소 "내국인 '제주도 여행' 관심도 급락" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 세종대 관광산업연구소 "내국인 '제주도 여행' 관심도 급락" 기자정보, 기사등록일 조득균 기자 입력 2018-09-04 00:00 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 컨슈머인사이트와 '주례 여행 형태 및 계획조사' 공동 수행 2018년 국내 여행지 관심도 추이 [그래픽=세종대 제공] 내국인을 중심으로 '제주도 여행'에 대한 관심이 점차 줄어드는 것으로 나타났다. 세종대학교 관광산업연구소는 컨슈머인사이트와 공동으로 수행한 '주례 여행 행태 및 계획조사'에서 제주도에 대한 내국인의 관심도가 급속히 식어가고 있다고 밝혔다. 줄곧 큰 차이로 앞서던 강원도에게 올해 8월 처음으로 뒤지는 것이 확실시 되고 있다. 제주도는 비싸다는 인식에 더해 불법체류자간의 살인사건, 난민 유입, 여성 사망사건 등이 영향을 준 것으로 보인다. 세종대 관광산업연구소와 여행전문 리서치 기관 컨슈머인사이트가 공동 수행하는 '주례 여행 행태 및 계획 조사'에서 특정 시도를 '가보고 싶다는 생각이 예전보다 더 커졌다'는 반응을 관심도로 판단, 2016년 2월부터 매주 500명을 대상으로 측정해 왔다.관련기사위메프, ‘제주 스냅촬영 온라인 박람회’ 개최 지난 30여 개월 동안 제주도는 2위 강원도를 줄곧 10%포인트 이상의 차이로 앞서며, 국내 여행지 관심도에서 부동의 1위 자리를 지켜왔다. 그러나 지난 7월 처음으로 그 차이가 3%포인트로 좁혀졌으며, 8월에 실시된 2주간의 조사(8월 6일~16일)에서는 강원도 50%, 제주도 48%로 역전 당한 상태다. 제주도 관심도의 변화 추이를 보다 구체적으로 파악하기 위해 지난 5월부터의 주단위 결과를 보면, 6월에 들어서부터 11주 연속 하락세를 이어가고 있다. 5월말 63%로 시작한 관심도는 매주 1~2%포인트씩 하락하여 7월 5째 주에는 처음으로 40%대로 진입하며 8월 2째 주에는 48%로 최저점을 기록했다. 제주도의 하락은 5월말 이후에 전개된 일련의 사건과 관련이 있다. 중국인 불법체류자간에 발생한 살인사건(5월31일), 예멘 이슬람 난민 관련 청원과 루머(6월13일), 30대 여성 실종(7월 25일) 및 시신 발견(8월1일)등의 영향이 큰 것으로 보인다. 관심도는 편의상 '관심이 커졌다'의 비율로 설명하나 '비슷하다'와 '적어졌다'는 답도 있다. 6월에 '커졌다'는 감소하고 '비슷하다'는 증가했으며 '적어졌다'는 변함이 없다. 그러나 7월의 변화는 극적이다. 5주간 관심이 '커졌다'는 전월 말에 비해 9%포인트(58%→49%) 줄어든 반면 '적어졌다'는 2배 이상(10%→24%로) 커져 제주도에 대한 부정적 인식이 급속히 늘었음을 보여준다. 8월에 들어서 '비슷하다'는 커지고 '적어졌다'는 감소세를 보이고 있으나 지켜 볼 필요가 있다. 올해 상반기 제주도관광협회의 입도통계에 따르면 외국인은 크게 줄고, 내국인은 정체 상태에 머물고 있다. 외국인 감소로 인해 작년 상반기에는 전체의 89%를 차지했던 내국인이 금년 상반기에는 93%로 커졌다. 이제 제주도 관광은 거의 전적으로 내국인에 의존하고 있음을 알 수 있다. 제주도관광협회는 지역관광 활성화를 위해 9월 한 달 동안 '제주관광 그랜드 세일'을 전개한다. 금전적 보상을 통해 관광객을 유치하려는 시도이나, 낮아지고 있는 제주도에 대한 관심도를 되살릴 수 있을지는 미지수다. 문제를 해결하려면 그 원인이 무엇인지에 대한 정확한 이해가 선행돼야 할 것으로 보인다. #세종대 #제주도 여행 #컨슈머인사이트 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 5국경절 연휴 마친 증시…호재 뒤늦게 반영할까 6尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4김두관 의원 "코레일 근무태만 천태만상 심각" 5'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 - CCTV뉴스 - 김진영 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-07 18:00 (금) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 생활·문화 제주도 중문 관광단지 맛집 ‘삼원정‘, 차별화된 생갈치조림으로 주목 김진영 기자 승인 2018.09.01 11:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [CCTV뉴스=김진영 기자] 시대가 변하면서 대중들의 입맛도 계속해서 변화하고 있다. 거기에 맞춰서 많은 요식 업체가 퓨전적인 요소를 활용하거나 재철에 맞는 신선도 높은 재료들로 사람들의 이목을 집중시키고 있다.해외 못지않은 이국적인 면모를 보여주는 제주도에서는 유독 많은 먹거리들이 생겨나고 있는데, 많은 서귀포 맛집 중에서도 중문관광단지 쪽에 위치한 제주도 서귀포 통갈치조림 맛집 ‘삼원정‘이 차별화된 생갈치조림을 선보이며 주목받고 있다.이 집은 그날 바다에서 공수한 생물 갈치만을 고집하여 조리를 하는 곳으로, 도민들에겐 제주도 현지인 맛집으로 불리고 있으며, 인근에 유명한 호텔들도 위치해있어 제주 롯데호텔 맛집, 제주 히든클리프호텔 맛집 등으로 알려져 있다.통째로 들어가는 생 갈치에 통 문어, 활 전복, 딱 새우 등 갖가지 해산물이 들어가는 해물 통 갈치조림이 가장 대표적인 메뉴로 꼽히는데, 이는 주문과 동시에 갓 지여져 나오는 찰솥밥과 함께 즐길 수 있다.제주도 중문 관광단지 맛집 삼원정 관계자는 “아직 여름철 날씨가 이어지면서 건강식을 찾는 이들이 많은데, 제주 여행을 하는 동시에 건강한 생갈치조림을 즐기고 가기 바란다”고 전했다.한편 맛집은 맛, 메뉴, 재료의 원산지, 가격, 후기 등을 확인한 뒤 방문하는 것이 좋다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1파블로항공 "드론 원천 기술로 무인 모빌리티 시장 선도하겠다" 2[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 3레노버, ‘씽크시스템 서버 혁신 30주년’ 기념 제품 업그레이드 발표 4[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 5윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 6안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 7LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 10SK쉴더스, 클라우드 보안 서비스 ‘Network Protection for AWS’ 출시 이 시각 주요뉴스 비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 안전보건공단, 선진 4국과 함께 산업 안전 보건 제도 세미나 개최 안전보건공단, 선진 4국과 함께 산업 안전 보건 제도 세미나 개최 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한 곳을 찾는다면, 서귀포 중문관광단지 갈치조림 맛집 색달식당 &lt; 경제 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 가볼만한 곳을 찾는다면, 서귀포 중문관광단지 갈치조림 맛집 색달식당 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 가볼만한 곳을 찾는다면, 서귀포 중문관광단지 갈치조림 맛집 색달식당 기자명 김재성 기자 입력 2018.09.04 10:43 수정 2020.03.11 20:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (사진제공=색달식당) [서울=내외경제TV] 김재성 기자=제주도 여행을 계획하면서 서귀포시를 지나치지 않을 순 없다. 보통 제주도를 한 바퀴 돌아서 여행을 다니기 때문에 남쪽에 위치한 서귀포시를 지나야 하는 것이다. 지나지 않으려면 공항 부근에서만 여행을 해야 하므로, 제주도 여행 필수코스가 서귀포시라 할 수 있다. 서귀포에 있는 중문관광단지에는 천지연폭포, 오설록 티뮤지엄, 서귀포항, 카멜리아 힐, 소인국테마파크나 테디베어 뮤지엄, 이중섭거리 등 여러 관광지가 있다. 그리고 유명하지 않아도 초콜렛 만들기나 감귤 수확하기 등 다양한 체험을 할 수 있는 관광지도 충분하다. 방문객이 많은 만큼 중문관광단지 주변으로 중문맛집으로 알려진 유명음식점이 많은데, 제주도의 맛과 정취를 즐길 수 있는 음식점으로 현지인의 제주 중문관광단지 맛집 '색달식당'이 이름을 알리고 있다. 제주도 맛집 색달식당의 활전복 통문어 갈치조림은 통문어와 통갈치, 딱새우, 활전복, 제주도산 돌문어 등을 갈치와 함께 넣고 끓인 요리로, 문어가 통으로 들어가 바다 내음을 물씬 느낄 수 있을 뿐만 아니라 특수 제작한 냄비에 담겨 나와 독보적인 비주얼을 선사한다. (사진제공=색달식당) 칼칼한 고추장 양념이 오랜 시간 졸여 갈치에 잘 배어 육지에서 경험 할 수 없는 맛을 볼 수 있다. 또한 서귀포 맛집 색달식당의 전복뚝배기는 생전복을 활용하여 부드러운 식감은 물론 향긋한 바다내음을 느낄 수 있으며, 해물뚝배기 또한 싱싱한 해물과 시원한 육수를 푹 우려내 깊은 맛을 느낄 수 있다. 제주 색달식당 관계자는 "제주도 요리는 섬 지역 특유의 풍성한 해산물 코스요리가 인기다. 요리마다 사용하는 어종이 다양하고 해산물의 깊은 향이 배어 나오기 때문에 식욕을 올려주는 별미 요리로 평가를 받는다. 특히 제주도갈치조림은 제주 특산의 은갈치를 사용해 살이 풍성하며, 오랜 시간 졸여 알싸하고 매콤한 조림의 맛이 갈치에 깊게 스며들어 더욱 맛있다"고 말했다. 색달중앙로에 위치한 중문맛집, 색달식당은 중문관광단지 내 방문객을 위해 픽업서비스를 제공하고 있으며, 사전 예약을 통해 단체손님 방문이 가능하다.     kjs@nbntv.co.kr 김재성 기자 kjs@nbntv.co.kr 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
   </si>
   <si>
     <t>"제주도 여행, 국내 여행객 관심도 급격 하락"… 세종대 관광산업연구소 등 조사 결과 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 사회&gt;교육 "제주도 여행, 국내 여행객 관심도 급격 하락"… 세종대 관광산업연구소 등 조사 결과 메트로신문 한용수 기자 ㅣ2018-09-03 13:23:53 뉴스듣기 가 가 가 가 가 "제주도 여행, 국내 여행객 관심도 급격 하락"… 세종대 관광산업연구소 등 조사 결과 제주도, 내국인 국내여행지 관심도 1위 자리 지난 8월 강원도에 내줘 세종대 관광산업연구소·컨슈머인사이트 공동 수행 '주례 여행 행태 및 계획 조사' 결과 2018년 국내여행지 관심도 추이 /세종대 제주도 여행에 대한 내국인들의 관심도가 급속히 떨어지고 있다는 조사 결과가 나왔다. 세종대(총장 배덕효) 관광산업연구소는 컨슈머인사이트와 공동으로 수행한 '주례 여행 행태 및 계획조사'결과 이 같은 결론이 나왔다고 3일 밝혔다. 양 기관은 조사 결과에 따르면, 제주도에 대한 내국인들의 관심도는 줄곧 1위였으나 지난 8월 처음으로 강원도에 뒤지는 것이 확실시 되고 있다. 제주도는 비싸다는 인식에 더해 불법체류자간의 살인사건, 난민 유입, 여성 사망사건 등이 영향을 준 것으로 보인다. 세종대학교 관광산업연구소와 여행전문 리서치 기관 컨슈머인사이트가 공동 수행하는 '주례 여행 행태 및 계획 조사'(매주 500명 조사)에서 특정 시도를 '가보고 싶다는 생각이 예전보다 더 커졌다'는 반응을 관심도라 하고, 이를 2016년 2월부터 측정해 왔다. 지난 30여 개월 동안 제주도는 2위 강원도를 줄곧 10%포인트 이상의 차이로 앞서며, 국내 여행지 관심도에서 부동의 1위 자리를 지켜 왔다. 그러나 지난 7월 처음으로 그 차이가 3%포인트로 좁혀졌으며, 8월에 실시된 2주간의 조사(8월 6일~16일)에서는 강원도 50%, 제주도 48%로 역전 당한 상태다. 제주도 관심도의 변화 추이를 보다 구체적으로 파악하기 위해 지난 5월부터의 주단위 결과를 보면, 6월에 들어서부터 11주 연속 하락세를 이어가고 있다. 5월말 63%로 시작한 관심도는 매주 1~2%포인트씩 하락하여 7월 5째 주에는 처음으로 40%대로 진입하였고, 8월 2째 주에는 48%로 최저점을 기록했다. 제주도의 하락은 5월말 이후에 전개된 일련의 사건과 관련이 있다. 중국인 불법체류자간에 발생한 살인사건(5월31일), 예멘 이슬람 난민 관련 청원과 루머(6월13일), 30대 여성 실종(7월 25일) 및 시신 발견(8월1일)등의 영향이 큰 것으로 보인다. 금년 상반기 제주도관광협회의 입도통계에 따르면 외국인은 크게 줄고, 내국인은 정체 상태에 머물고 있다. 외국인 감소로 인해 작년 상반기에는 전체의 89%를 차지했던 내국인이 금년 상반기에는 93%로 커졌다. 이제 제주도 관광은 거의 전적으로 내국인에 의존하고 있음을 알 수 있다. 제주도관광협회는 지역관광 활성화를 위해 9월 한 달 동안 '제주관광 그랜드 세일'을 전개한다. 세종대 관광산업연구소는 "금전적 보상을 통해 관광객을 유치하려는 시도이나, 낮아지고 있는 제주도에 대한 관심도를 되살릴 수 있을지는 미지수다"며 "문제를 해결하려면 그 원인이 무엇인지에 대한 정확한 이해가 선행되어야 한다"고 밝혔다. 메트로신문 한용수 기자 hys@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
   </si>
   <si>
-    <t>제주도 마라도서 관광객 2명 사망…'너울성 파도' 얼마나 세길래 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 사건/사고 제주도 마라도서 관광객 2명 사망…'너울성 파도' 얼마나 세길래 입력 2018-09-06 07:55 나경연 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (뉴시스)제주도 마라도 해안에서 관광객 2명이 바다에 빠져 숨지는 사고가 발생했다. 5일 오후 1시 40분 제주 서귀포시 마라도 속칭 신작로 바지선 선착장 부근 해상에서 이모(53·충남)씨와 김모(51·여·충남)씨 등 2명이 너울성 파도에 휩쓸린 뒤 바다에 빠졌다.너울성 파도는 넓은 바다에서 바람에 의해 시작된 작은 파도가 다른 파도와 반동을 함께 하여, 수심이 얕은 해안으로 밀려오면서 점점 세력을 키운 뒤 한꺼번에 솟구치는 파도다. 이는 엄청난 양의 바닷물로 해안가에 큰 피해를 준다. 관련 뉴스 일본 오사카, 25년 만의 초강력 태풍 ‘제비’ 강타에 7명 사망·공항 침수 일본 열도 강타한 태풍 '제비'…간사이공항에 발 묶인 여행객이 말하는 현지 상황은? “태풍오면 아이는 누가 보나요”…이재정 ‘자녀돌봄재난휴가’ 도입법안 발의 신고를 받은 서귀포해경은 500t급 단정을 보내 30분 만인 오후 2시 10분 이들을 구조하고 병원으로 옮겼다. 그러나 이들은 구조 직후부터 의식이 없었고, 병원에 옮겨진 후 사망 판정이 내려졌다.이날 낮까지 마라도에는 파도가 높게 일었다. 이에 서귀포해경은 이들이 선착장에서 높은 파도에 휩쓸려 바다로 추락한 것으로 보고 사고 원인을 파악하고 있다.한편, 이 선착장에서는 2012년 8월 6일에도 일가족 3명이 파도에 휩쓸려 숨지는 사고가 발생했다. #지진 #태풍 #날씨 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 '베이비 슬럼프 시대'...아기 발자국을 늘려라 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 사회 최신 뉴스 속보 ‘채널A 사건’ 최강욱 의원 1심 무죄 ‘스토킹범죄’ 경찰이 구속영장 신청해도 검사‧판사가 32.6% 기각 8차선 도로에 누워 잔 남성 발견…“누구 인생 망치려고” 서대문구 '영 케어러' 돌봄·경제·취업·학습 지원 전장연, 지하철 4호선 출근길 시위…“지연우려” 오후 9시까지 신규 확진자 1만5725명 …전날보다 4053명 늘어 속보 오후 9시까지 전국 1만5725명 확진…전날보다 4000여명 늘어 개천절 세종대로에 보수단체 3만명 운집…물리적 충돌은 없어 경찰위, ‘경찰국 신설 규칙’ 헌재에 권한쟁의심판 청구 여수 앞바다 폐유 유출에 8시간 긴급방제…오염 원인 파악 중 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:09 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.삼성출판사 4,250 3.디아이씨 585 4.에이프로젠제약 72 5.KR모터스 87 1.라닉스 1,520 2.오픈엣지테크놀로지 2,500 3.유안타제7호스팩 685 4.오토앤 2,100 5.칩스앤미디어 2,900 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,182,000 +1.08% 이더리움 1,906,000 +1.6% 비트코인 캐시 167,000 -0.65% 리플 657 -0.21% 위믹스 2,591 +1.61% 에이다 613.6 -0.23% 이오스 1,697 -0.35% 트론 88.18 -0.91% 스텔라루멘 166.8 -4.08% 비트코인에스브이 69,400 -0.5% 체인링크 10,720 +2.98% 샌드박스 1,193 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” menu 세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 사회 교육·캠퍼스 세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” 김민아 기자 승인 2018-09-03 15:46 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 2018년 국내여행지 관심도 추이. (제공: 세종대학교) [천지일보=김민아 기자] 세종대(총장 배덕효) 관광산업연구소는 컨슈머인사이트와 공동으로 수행한 ‘주례 여행 행태 및 계획조사’에서 제주도에 대한 내국인의 관심도가 급속히 식어가고 있다고 밝혔다. 줄곧 큰 차이로 앞서던 강원도에게 금년 8월 처음으로 뒤지는 것이 확실시 되고 있다. 제주도는 비싸다는 인식에 더해 불법체류자간의 살인사건, 난민 유입, 여성 사망사건 등이 영향을 준 것으로 보인다. 세종대학교 관광산업연구소와 여행전문 리서치 기관 컨슈머인사이트가 공동 수행하는 ‘주례 여행 행태 및 계획 조사(매주 500명 조사)’에서 특정 시도를 ‘가보고 싶다는 생각이 예전보다 더 커졌다’는 반응을 관심도라 하고, 이를 2016년 2월부터 측정해 왔다. 지난 30여 개월 동안 제주도는 2위 강원도를 줄곧 10%포인트 이상의 차이로 앞서며, 국내 여행지 관심도에서 부동의 1위 자리를 지켜 왔다. 그러나 지난 7월 처음으로 그 차이가 3%포인트로 좁혀졌으며, 8월에 실시된 2주간의 조사(8월 6일~16일)에서는 강원도 50%, 제주도 48%로 역전 당한 상태다. 2018년 5월~8월 제주도 여행관심도(주단위). (제공: 세종대학교) 제주도 관심도의 변화 추이를 보다 구체적으로 파악하기 위해 지난 5월부터의 주단위 결과를 보면, 6월에 들어서부터 11주 연속 하락세를 이어가고 있다. 5월말 63%로 시작한 관심도는 매주 1~2%포인트씩 하락하여 7월 5째 주에는 처음으로 40%대로 진입했고, 8월 2째 주에는 48%로 최저점을 기록했다. 제주도의 하락은 5월말 이후에 전개된 일련의 사건과 관련이 있다. 중국인 불법체류자간에 발생한 살인사건(5월 31일), 예멘 이슬람 난민 관련 청원과 루머(6월 13일), 30대 여성 실종(7월 25일) 및 시신 발견(8월 1일)등의 영향이 큰 것으로 보인다. 관심도는 편의상 ‘관심이 커졌다’의 비율로 설명하나, ‘비슷하다’와 ‘적어졌다’는 답도 있다. 6월에 ‘커졌다’는 감소하고, ‘비슷하다’는 증가했으며, ‘적어졌다’는 변함이 없다. 그러나 7월의 변화는 극적이다. 5주간 관심이 ‘커졌다’는 전월 말에 비해 9%포인트(58%→49%) 줄어든 반면, ‘적어졌다’는 2배 이상(10%→24%로) 커져 제주도에 대한 부정적 인식이 급속히 늘었음을 보여준다. 8월에 들어서 ‘비슷하다’는 커지고, ‘적어졌다’는 감소세를 보이고 있으나 지켜 볼 필요가 있을 것으로 보인다. 금년 상반기 제주도관광협회의 입도통계에 따르면 외국인은 크게 줄고, 내국인은 정체 상태에 머물고 있다. 외국인 감소로 인해 작년 상반기에는 전체의 89%를 차지했던 내국인이 금년 상반기에는 93%로 커졌다. 이제 제주도 관광은 거의 전적으로 내국인에 의존하고 있음을 알 수 있다. 세종대 관광연구소 관계자는 “제주도관광협회는 지역관광 활성화를 위해 9월 한 달 동안 ‘제주관광 그랜드 세일’을 전개한다. 금전적 보상을 통해 관광객을 유치하려는 시도이나, 낮아지고 있는 제주도에 대한 관심도를 되살릴 수 있을지는 미지수”라며 “문제를 해결하려면 그 원인이 무엇인지에 대한 정확한 이해가 선행돼야 한다”고 말했다. 김민아 기자 mina8172@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 칼럼 가보고 싶은 건축 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 천지시론 지금은 참 종교의 시대… 계시 받은 자 앞으로 나와야 하는 때 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 사설 무역수지 6개월 적자, 경상수지도 적자로 가나 사설 국정감사는 입법부 고유 권한이다 칼럼 가보고 싶은 건축 칼럼 기후 재난은 불평등 문제다 칼럼 “네가 좀 와서 들어줄래?” 아동성범죄자 김근식이 출소한다 칼럼 경제위기와 경제질서 기획 [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;5&gt;] HWPL과 약속 지킨 동유럽 수반들 “한반도 평화 통일지지” [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;4&gt;] 동유럽 민주주의 주역들도 “이만희 대표와 함께 하겠다” 손들어 [현대이야기&lt;21&gt;] “삼성을 잡아라”… 메모리 반도체 개발에 사활 걸었던 현대전자 연중기획 중소기업강국코리아 코리아스페이스㈜ 스페이스케어 “코로나 바이러스 99.99% 사멸로 청해부대 등 집단감염 막는다” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+    <t>세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” menu 세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 사회 교육·캠퍼스 세종대 관광산업연구소 “제주도에 대한 내국인 관심도 급락” 김민아 기자 승인 2018-09-03 15:46 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 2018년 국내여행지 관심도 추이. (제공: 세종대학교) [천지일보=김민아 기자] 세종대(총장 배덕효) 관광산업연구소는 컨슈머인사이트와 공동으로 수행한 ‘주례 여행 행태 및 계획조사’에서 제주도에 대한 내국인의 관심도가 급속히 식어가고 있다고 밝혔다. 줄곧 큰 차이로 앞서던 강원도에게 금년 8월 처음으로 뒤지는 것이 확실시 되고 있다. 제주도는 비싸다는 인식에 더해 불법체류자간의 살인사건, 난민 유입, 여성 사망사건 등이 영향을 준 것으로 보인다. 세종대학교 관광산업연구소와 여행전문 리서치 기관 컨슈머인사이트가 공동 수행하는 ‘주례 여행 행태 및 계획 조사(매주 500명 조사)’에서 특정 시도를 ‘가보고 싶다는 생각이 예전보다 더 커졌다’는 반응을 관심도라 하고, 이를 2016년 2월부터 측정해 왔다. 지난 30여 개월 동안 제주도는 2위 강원도를 줄곧 10%포인트 이상의 차이로 앞서며, 국내 여행지 관심도에서 부동의 1위 자리를 지켜 왔다. 그러나 지난 7월 처음으로 그 차이가 3%포인트로 좁혀졌으며, 8월에 실시된 2주간의 조사(8월 6일~16일)에서는 강원도 50%, 제주도 48%로 역전 당한 상태다. 2018년 5월~8월 제주도 여행관심도(주단위). (제공: 세종대학교) 제주도 관심도의 변화 추이를 보다 구체적으로 파악하기 위해 지난 5월부터의 주단위 결과를 보면, 6월에 들어서부터 11주 연속 하락세를 이어가고 있다. 5월말 63%로 시작한 관심도는 매주 1~2%포인트씩 하락하여 7월 5째 주에는 처음으로 40%대로 진입했고, 8월 2째 주에는 48%로 최저점을 기록했다. 제주도의 하락은 5월말 이후에 전개된 일련의 사건과 관련이 있다. 중국인 불법체류자간에 발생한 살인사건(5월 31일), 예멘 이슬람 난민 관련 청원과 루머(6월 13일), 30대 여성 실종(7월 25일) 및 시신 발견(8월 1일)등의 영향이 큰 것으로 보인다. 관심도는 편의상 ‘관심이 커졌다’의 비율로 설명하나, ‘비슷하다’와 ‘적어졌다’는 답도 있다. 6월에 ‘커졌다’는 감소하고, ‘비슷하다’는 증가했으며, ‘적어졌다’는 변함이 없다. 그러나 7월의 변화는 극적이다. 5주간 관심이 ‘커졌다’는 전월 말에 비해 9%포인트(58%→49%) 줄어든 반면, ‘적어졌다’는 2배 이상(10%→24%로) 커져 제주도에 대한 부정적 인식이 급속히 늘었음을 보여준다. 8월에 들어서 ‘비슷하다’는 커지고, ‘적어졌다’는 감소세를 보이고 있으나 지켜 볼 필요가 있을 것으로 보인다. 금년 상반기 제주도관광협회의 입도통계에 따르면 외국인은 크게 줄고, 내국인은 정체 상태에 머물고 있다. 외국인 감소로 인해 작년 상반기에는 전체의 89%를 차지했던 내국인이 금년 상반기에는 93%로 커졌다. 이제 제주도 관광은 거의 전적으로 내국인에 의존하고 있음을 알 수 있다. 세종대 관광연구소 관계자는 “제주도관광협회는 지역관광 활성화를 위해 9월 한 달 동안 ‘제주관광 그랜드 세일’을 전개한다. 금전적 보상을 통해 관광객을 유치하려는 시도이나, 낮아지고 있는 제주도에 대한 관심도를 되살릴 수 있을지는 미지수”라며 “문제를 해결하려면 그 원인이 무엇인지에 대한 정확한 이해가 선행돼야 한다”고 말했다. 김민아 기자 mina8172@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 가로세로 퀴즈 가로세로 낱말 퀴즈&lt;37&gt;, &lt;36&gt; 답 및 당첨자 발표 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 사설 한국은행 빅스텝 결단은 과감해야 한다 사설 국정감사 이제부터라도 민생이 필요하다 칼럼 원자력발전 친환경 맞나 칼럼 연예인들이여, 성인이 됐으면 경제적으로 독립해야 한다 칼럼 국가안보는 국가존립의 핵심 칼럼 미국, 중국반도체 자립 자극 더했다 기획 [정치인사이드] ‘윤석열차’로 촉발된 대통령 풍자 논란… 과거 정부 땐 어땠나 [현대이야기&lt;22&gt;] 걸면 걸리는 ‘걸리버’ 기억 나시나요?… 추억이 된 현대전자 [한국인 이만희 평화실화 FOCUS│HWPL과 아프리카&lt;1&gt;] HWPL, 아프리카 각계각층에 “평화의 일 함께하자” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+  </si>
+  <si>
+    <t>제주도 마라도서 관광객 2명 사망…'너울성 파도' 얼마나 세길래 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 사건/사고 제주도 마라도서 관광객 2명 사망…'너울성 파도' 얼마나 세길래 입력 2018-09-06 07:55 나경연 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (뉴시스)제주도 마라도 해안에서 관광객 2명이 바다에 빠져 숨지는 사고가 발생했다. 5일 오후 1시 40분 제주 서귀포시 마라도 속칭 신작로 바지선 선착장 부근 해상에서 이모(53·충남)씨와 김모(51·여·충남)씨 등 2명이 너울성 파도에 휩쓸린 뒤 바다에 빠졌다.너울성 파도는 넓은 바다에서 바람에 의해 시작된 작은 파도가 다른 파도와 반동을 함께 하여, 수심이 얕은 해안으로 밀려오면서 점점 세력을 키운 뒤 한꺼번에 솟구치는 파도다. 이는 엄청난 양의 바닷물로 해안가에 큰 피해를 준다. 관련 뉴스 일본 오사카, 25년 만의 초강력 태풍 ‘제비’ 강타에 7명 사망·공항 침수 일본 열도 강타한 태풍 '제비'…간사이공항에 발 묶인 여행객이 말하는 현지 상황은? “태풍오면 아이는 누가 보나요”…이재정 ‘자녀돌봄재난휴가’ 도입법안 발의 신고를 받은 서귀포해경은 500t급 단정을 보내 30분 만인 오후 2시 10분 이들을 구조하고 병원으로 옮겼다. 그러나 이들은 구조 직후부터 의식이 없었고, 병원에 옮겨진 후 사망 판정이 내려졌다.이날 낮까지 마라도에는 파도가 높게 일었다. 이에 서귀포해경은 이들이 선착장에서 높은 파도에 휩쓸려 바다로 추락한 것으로 보고 사고 원인을 파악하고 있다.한편, 이 선착장에서는 2012년 8월 6일에도 일가족 3명이 파도에 휩쓸려 숨지는 사고가 발생했다. #지진 #태풍 #날씨 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 07 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 [국감 핫잇슈] 교육부 등 소속기관 등 5년간 사이버 공격 21만 건 50대 남성, 서울 공원서 총상…극단 선택 추정 [포토] 2022 하이서울패션쇼 개막 [포토] 한국패션 미래를 한자리에 '하이서울패션쇼 2022' [포토] 하이서울패션쇼 2022, 3년만에 개최 “통통한 새우젓 알뜰 구매”…3년 만에 마포나루 ‘새우젓 축제’ 열린다 [포토] '내가 가고싶은 회사에서 만드는 제품은' [포토] '붐비는 2022 한국제약바이오 채용박람회' [포토] '내가 가고싶은 제약바이오기업은' [포토] '제약바이오 채용설명회장 열기' 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:31 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,280 3.베트남개발1 68 4.유니온머티리얼 340 5.휴니드 430 1.테라셈 31 2.코아스템 2,680 3.코디엠 162 4.해성산업1우 3,100 5.동국알앤에스 790 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,361,000 -1.34% 이더리움 1,837,000 -2.65% 비트코인 캐시 158,800 -4.97% 리플 707.5 -6.42% 위믹스 2,409 -4.93% 에이다 568.6 -5.86% 이오스 1,488 -7.23% 트론 88.56 -1.3% 스텔라루멘 176.8 -2.91% 비트코인에스브이 68,000 -3.2% 체인링크 10,330 -5.23% 샌드박스 1,132 -5.03% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -455,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -466,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -477,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -487,6 +580,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -496,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -507,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -518,7 +614,227 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
